--- a/public/files/Create List Students Template.xlsx
+++ b/public/files/Create List Students Template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E141B1D-04D0-483E-98CF-C0E9082B8558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F913A7-B369-4CD1-85CC-90256F60960E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,9 +20,6 @@
     <t>Student ID</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -30,6 +27,9 @@
   </si>
   <si>
     <t>Gender</t>
+  </si>
+  <si>
+    <t>Full Name</t>
   </si>
 </sst>
 </file>
@@ -441,7 +441,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,16 +455,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/public/files/Create List Students Template.xlsx
+++ b/public/files/Create List Students Template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F913A7-B369-4CD1-85CC-90256F60960E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963B2152-DB65-4DC2-A777-4218A5086393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,9 +17,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Student ID</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -30,6 +27,9 @@
   </si>
   <si>
     <t>Full Name</t>
+  </si>
+  <si>
+    <t>Student Code</t>
   </si>
 </sst>
 </file>
@@ -94,11 +94,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,52 +442,55 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="30" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="textLength" operator="equal" showErrorMessage="1" errorTitle="Invalid ID" error="Student ID must be exactly 2 letters + 6 digits (e.g., QE123456)" sqref="A2:A100" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showErrorMessage="1" errorTitle="Invalid ID" error="Student ID must be exactly 2 letters + 6 digits (e.g., QE123456)" sqref="A2:A1048576" xr:uid="{CD8CA3CA-7F0A-46AE-9FEF-ECDACC0320FF}">
       <formula1>8</formula1>
     </dataValidation>
-    <dataValidation type="textLength" showErrorMessage="1" errorTitle="Invalid Name" error="Name must be between 2 and 100 characters." sqref="B2:B100" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="textLength" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Name" error="Name must be between 2 and 100 characters." sqref="B2:B1048576" xr:uid="{BC4B60E6-2BF2-4BA1-A9AF-1A01910E9095}">
       <formula1>2</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="custom" showErrorMessage="1" errorTitle="Invalid Email" error="Email must contain &quot;@&quot;." sqref="C2:C100" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Email" error="Email must contain &quot;@&quot;." sqref="C2:C1048576" xr:uid="{D816F5B6-6DE3-4736-872A-378854F19456}">
       <formula1>ISNUMBER(SEARCH("@",C2))</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" showErrorMessage="1" errorTitle="Invalid Phone Number" error="Phone number must be 10 digits and start with 0." sqref="D2:D100" xr:uid="{00000000-0002-0000-0000-000067000000}">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Phone Number" error="Phone number must be 10 digits and start with 0." sqref="D2:D1048576" xr:uid="{D2AC175B-E4F0-452E-ABF7-C2A0BE6052CE}">
       <formula1>10</formula1>
     </dataValidation>
-    <dataValidation type="list" showErrorMessage="1" errorTitle="Invalid Gender" error="Gender must be either &quot;Male&quot; or &quot;Female&quot;." sqref="E2:E100" xr:uid="{00000000-0002-0000-0000-000069000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Gender" error="Gender must be either &quot;Male&quot; or &quot;Female&quot;." sqref="E2:E1048576" xr:uid="{799DB971-367B-4856-ABD1-3A6C9DA8BA14}">
       <formula1>"Male,Female"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>